--- a/sounding/forecast.xlsx
+++ b/sounding/forecast.xlsx
@@ -477,46 +477,46 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>10152</v>
+        <v>10143</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="F2">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="G2">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="J2">
-        <v>8.60513117163634</v>
+        <v>8.54371734807285</v>
       </c>
       <c r="K2">
-        <v>7.7454</v>
+        <v>8.2432</v>
       </c>
       <c r="L2">
-        <v>0.859731171636344</v>
+        <v>0.300517348072846</v>
       </c>
       <c r="M2">
-        <v>281.65</v>
+        <v>281.55</v>
       </c>
       <c r="N2">
         <v>0.0111111111111111</v>
       </c>
       <c r="O2">
-        <v>4.112</v>
+        <v>11.822</v>
       </c>
       <c r="P2">
-        <v>-0.25772047369133</v>
+        <v>-0.0311908669941841</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -527,46 +527,46 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>10127</v>
+        <v>10105</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>8.2</v>
+        <v>8.1</v>
       </c>
       <c r="F3">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>8.2974907784577</v>
+        <v>8.23834884809247</v>
       </c>
       <c r="K3">
-        <v>7.4808</v>
+        <v>7.9786</v>
       </c>
       <c r="L3">
-        <v>0.8166907784577</v>
+        <v>0.259748848092471</v>
       </c>
       <c r="M3">
-        <v>281.35</v>
+        <v>281.25</v>
       </c>
       <c r="N3">
-        <v>0.00816326530612244</v>
+        <v>0.00612244897959183</v>
       </c>
       <c r="O3">
-        <v>5.654</v>
+        <v>14.392</v>
       </c>
       <c r="P3">
-        <v>0.185065054616214</v>
+        <v>0.0629392126044471</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -577,46 +577,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10075</v>
+        <v>10053</v>
       </c>
       <c r="D4">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>7.8</v>
       </c>
       <c r="F4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>7.89001256964747</v>
+        <v>7.93891648733955</v>
       </c>
       <c r="K4">
-        <v>7.0006</v>
+        <v>7.4984</v>
       </c>
       <c r="L4">
-        <v>0.889412569647467</v>
+        <v>0.440516487339554</v>
       </c>
       <c r="M4">
         <v>280.95</v>
       </c>
       <c r="N4">
-        <v>0.00999999999999999</v>
+        <v>0.0075</v>
       </c>
       <c r="O4">
-        <v>6.682</v>
+        <v>15.934</v>
       </c>
       <c r="P4">
-        <v>-0.0109485111255387</v>
+        <v>0.0324565495563409</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,43 +630,43 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="F5">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="G5">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I5">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>7.28258434299232</v>
+        <v>7.63756634364046</v>
       </c>
       <c r="K5">
-        <v>6.4126</v>
+        <v>7.1064</v>
       </c>
       <c r="L5">
-        <v>0.869984342992323</v>
+        <v>0.531166343640457</v>
       </c>
       <c r="M5">
-        <v>280.35</v>
+        <v>280.65</v>
       </c>
       <c r="N5">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="O5">
-        <v>7.71</v>
+        <v>17.476</v>
       </c>
       <c r="P5">
-        <v>-0.00824114824599021</v>
+        <v>0.0556232240559854</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -677,46 +677,46 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9977</v>
+        <v>9948</v>
       </c>
       <c r="D6">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="G6">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
-        <v>7.08073108924327</v>
+        <v>7.43623927519127</v>
       </c>
       <c r="K6">
-        <v>6.2166</v>
+        <v>6.7144</v>
       </c>
       <c r="L6">
-        <v>0.864131089243273</v>
+        <v>0.721839275191269</v>
       </c>
       <c r="M6">
-        <v>280.15</v>
+        <v>280.45</v>
       </c>
       <c r="N6">
-        <v>0.00862068965517241</v>
+        <v>0.00683760683760684</v>
       </c>
       <c r="O6">
-        <v>7.71</v>
+        <v>18.504</v>
       </c>
       <c r="P6">
-        <v>0.0730045115106617</v>
+        <v>0.0308768708729324</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -727,46 +727,46 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9825</v>
+        <v>9804</v>
       </c>
       <c r="D7">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F7">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="G7">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
-        <v>6.07162240691486</v>
+        <v>6.62598786258224</v>
       </c>
       <c r="K7">
-        <v>5.0798</v>
+        <v>5.5678</v>
       </c>
       <c r="L7">
-        <v>0.991822406914855</v>
+        <v>1.05818786258224</v>
       </c>
       <c r="M7">
-        <v>279.15</v>
+        <v>279.65</v>
       </c>
       <c r="N7">
-        <v>0.00789473684210527</v>
+        <v>0.00723684210526316</v>
       </c>
       <c r="O7">
-        <v>8.738</v>
+        <v>21.074</v>
       </c>
       <c r="P7">
-        <v>0.0904540479848187</v>
+        <v>0.0207197573463247</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -777,46 +777,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>9651</v>
+        <v>9629</v>
       </c>
       <c r="D8">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="E8">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="F8">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="G8">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="J8">
-        <v>4.85824652188467</v>
+        <v>5.50962361994976</v>
       </c>
       <c r="K8">
-        <v>3.5902</v>
+        <v>4.0782</v>
       </c>
       <c r="L8">
-        <v>1.26804652188467</v>
+        <v>1.43142361994976</v>
       </c>
       <c r="M8">
-        <v>277.95</v>
+        <v>278.55</v>
       </c>
       <c r="N8">
-        <v>0.010989010989011</v>
+        <v>0.0103825136612022</v>
       </c>
       <c r="O8">
-        <v>10.28</v>
+        <v>22.616</v>
       </c>
       <c r="P8">
-        <v>-0.0377063304052447</v>
+        <v>-0.00359775763294589</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -827,46 +827,46 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>9433</v>
+        <v>9424</v>
       </c>
       <c r="D9">
-        <v>683</v>
+        <v>624</v>
       </c>
       <c r="E9">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
         <v>176</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I9">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="J9">
-        <v>2.84450024408244</v>
+        <v>3.58232542393358</v>
       </c>
       <c r="K9">
-        <v>1.8066</v>
+        <v>2.2848</v>
       </c>
       <c r="L9">
-        <v>1.03790024408244</v>
+        <v>1.29752542393358</v>
       </c>
       <c r="M9">
-        <v>275.95</v>
+        <v>276.65</v>
       </c>
       <c r="N9">
-        <v>0.008125</v>
+        <v>0.00704225352112676</v>
       </c>
       <c r="O9">
-        <v>11.822</v>
+        <v>24.672</v>
       </c>
       <c r="P9">
-        <v>0.0441322610132367</v>
+        <v>0.016414646556086</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>9250</v>
       </c>
       <c r="D10">
-        <v>843</v>
+        <v>766</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I10">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="J10">
-        <v>1.52590512018168</v>
+        <v>2.56452154463403</v>
       </c>
       <c r="K10">
-        <v>0.2386</v>
+        <v>0.893199999999999</v>
       </c>
       <c r="L10">
-        <v>1.28730512018168</v>
+        <v>1.67132154463403</v>
       </c>
       <c r="M10">
-        <v>274.65</v>
+        <v>275.65</v>
       </c>
       <c r="N10">
-        <v>0.00869565217391304</v>
+        <v>0.00625</v>
       </c>
       <c r="O10">
-        <v>12.85</v>
+        <v>25.186</v>
       </c>
       <c r="P10">
-        <v>0.0251863877622746</v>
+        <v>0.0202534874137822</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -927,46 +927,46 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>9199</v>
+        <v>9174</v>
       </c>
       <c r="D11">
-        <v>889</v>
+        <v>830</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J11">
-        <v>1.11953217922189</v>
+        <v>2.15639217172907</v>
       </c>
       <c r="K11">
-        <v>-0.212200000000001</v>
+        <v>0.266</v>
       </c>
       <c r="L11">
-        <v>1.33173217922189</v>
+        <v>1.89039217172907</v>
       </c>
       <c r="M11">
-        <v>274.25</v>
+        <v>275.25</v>
       </c>
       <c r="N11">
-        <v>0.00347826086956522</v>
+        <v>0.00560344827586207</v>
       </c>
       <c r="O11">
-        <v>13.364</v>
+        <v>25.7</v>
       </c>
       <c r="P11">
-        <v>0.127816960140224</v>
+        <v>0.0229685377880521</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -977,46 +977,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8937</v>
+        <v>8916</v>
       </c>
       <c r="D12">
-        <v>1119</v>
+        <v>1062</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>-3.4</v>
+        <v>1.2</v>
       </c>
       <c r="G12">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I12">
-        <v>3.7</v>
+        <v>-0.4</v>
       </c>
       <c r="J12">
-        <v>0.222907518373461</v>
+        <v>0.826807142336349</v>
       </c>
       <c r="K12">
-        <v>-2.4662</v>
+        <v>-2.0076</v>
       </c>
       <c r="L12">
-        <v>2.68910751837346</v>
+        <v>2.83440714233635</v>
       </c>
       <c r="M12">
-        <v>273.45</v>
+        <v>273.95</v>
       </c>
       <c r="N12">
-        <v>0.00381679389312977</v>
+        <v>0.00418250950570342</v>
       </c>
       <c r="O12">
-        <v>14.906</v>
+        <v>26.728</v>
       </c>
       <c r="P12">
-        <v>0.0975744815151902</v>
+        <v>0.0284591020588281</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1027,46 +1027,46 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>8639</v>
+        <v>8630</v>
       </c>
       <c r="D13">
-        <v>1381</v>
+        <v>1325</v>
       </c>
       <c r="E13">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="F13">
-        <v>-6.9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I13">
-        <v>6.2</v>
+        <v>-0.3</v>
       </c>
       <c r="J13">
-        <v>-0.863650510830666</v>
+        <v>-0.300000000000011</v>
       </c>
       <c r="K13">
-        <v>-5.0338</v>
+        <v>-4.585</v>
       </c>
       <c r="L13">
-        <v>4.17014948916933</v>
+        <v>4.28499999999999</v>
       </c>
       <c r="M13">
-        <v>272.45</v>
+        <v>272.85</v>
       </c>
       <c r="N13">
-        <v>0.00444444444444445</v>
+        <v>0.00333333333333333</v>
       </c>
       <c r="O13">
-        <v>15.42</v>
+        <v>28.27</v>
       </c>
       <c r="P13">
-        <v>0.0820080458119587</v>
+        <v>0.0293619479888231</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,43 +1080,43 @@
         <v>8500</v>
       </c>
       <c r="D14">
-        <v>1516</v>
+        <v>1445</v>
       </c>
       <c r="E14">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="F14">
-        <v>-8.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G14">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I14">
-        <v>7.1</v>
+        <v>-0.4</v>
       </c>
       <c r="J14">
-        <v>-1.50333042766738</v>
+        <v>-0.707034591722902</v>
       </c>
       <c r="K14">
-        <v>-6.3568</v>
+        <v>-5.761</v>
       </c>
       <c r="L14">
-        <v>4.85346957233262</v>
+        <v>5.0539654082771</v>
       </c>
       <c r="M14">
-        <v>271.85</v>
+        <v>272.45</v>
       </c>
       <c r="N14">
-        <v>0.00429447852760736</v>
+        <v>0.00279329608938547</v>
       </c>
       <c r="O14">
-        <v>14.906</v>
+        <v>28.27</v>
       </c>
       <c r="P14">
-        <v>0.0903906061839997</v>
+        <v>0.0318381242493237</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1127,46 +1127,46 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>8336</v>
+        <v>8312</v>
       </c>
       <c r="D15">
-        <v>1679</v>
+        <v>1624</v>
       </c>
       <c r="E15">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="F15">
-        <v>-10.3</v>
+        <v>-0.8</v>
       </c>
       <c r="G15">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I15">
-        <v>8.3</v>
+        <v>-0.4</v>
       </c>
       <c r="J15">
-        <v>-2.25564111515865</v>
+        <v>-1.21918754871996</v>
       </c>
       <c r="K15">
-        <v>-7.9542</v>
+        <v>-7.5152</v>
       </c>
       <c r="L15">
-        <v>5.69855888484135</v>
+        <v>6.29601245128004</v>
       </c>
       <c r="M15">
-        <v>271.15</v>
+        <v>271.95</v>
       </c>
       <c r="N15">
-        <v>0.00562130177514793</v>
+        <v>0.00234604105571848</v>
       </c>
       <c r="O15">
-        <v>13.878</v>
+        <v>28.784</v>
       </c>
       <c r="P15">
-        <v>0.0796229254832998</v>
+        <v>0.0327149657533278</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1177,46 +1177,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>7993</v>
+        <v>7972</v>
       </c>
       <c r="D16">
-        <v>2017</v>
+        <v>1965</v>
       </c>
       <c r="E16">
-        <v>-3.9</v>
+        <v>-2</v>
       </c>
       <c r="F16">
-        <v>-13.1</v>
+        <v>-1.5</v>
       </c>
       <c r="G16">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I16">
-        <v>9.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J16">
-        <v>-4.24079959948017</v>
+        <v>-2.03750898279799</v>
       </c>
       <c r="K16">
-        <v>-11.2666</v>
+        <v>-10.857</v>
       </c>
       <c r="L16">
-        <v>7.02580040051983</v>
+        <v>8.81949101720201</v>
       </c>
       <c r="M16">
-        <v>269.25</v>
+        <v>271.15</v>
       </c>
       <c r="N16">
-        <v>0.00868421052631579</v>
+        <v>-0.00206185567010309</v>
       </c>
       <c r="O16">
-        <v>10.794</v>
+        <v>23.13</v>
       </c>
       <c r="P16">
-        <v>0.0367686797335918</v>
+        <v>0.0806217076809012</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1227,46 +1227,46 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>7613</v>
+        <v>7592</v>
       </c>
       <c r="D17">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="E17">
-        <v>-7.2</v>
+        <v>-1.2</v>
       </c>
       <c r="F17">
-        <v>-15.5</v>
+        <v>-1.1</v>
       </c>
       <c r="G17">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I17">
-        <v>8.3</v>
+        <v>-0.0999999999999999</v>
       </c>
       <c r="J17">
-        <v>-7.62255467840401</v>
+        <v>-1.22892053380031</v>
       </c>
       <c r="K17">
-        <v>-14.9906</v>
+        <v>-14.6594</v>
       </c>
       <c r="L17">
-        <v>7.36804532159599</v>
+        <v>13.4304794661997</v>
       </c>
       <c r="M17">
-        <v>265.95</v>
+        <v>271.95</v>
       </c>
       <c r="N17">
-        <v>0.00983606557377049</v>
+        <v>0.00363636363636364</v>
       </c>
       <c r="O17">
-        <v>9.766</v>
+        <v>19.018</v>
       </c>
       <c r="P17">
-        <v>0.00092567512542011</v>
+        <v>0.062071818325208</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1277,46 +1277,46 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>7199</v>
+        <v>7187</v>
       </c>
       <c r="D18">
-        <v>2824</v>
+        <v>2793</v>
       </c>
       <c r="E18">
-        <v>-11.4</v>
+        <v>-2.8</v>
       </c>
       <c r="F18">
-        <v>-16.7</v>
+        <v>-2.6</v>
       </c>
       <c r="G18">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I18">
-        <v>5.3</v>
+        <v>-0.2</v>
       </c>
       <c r="J18">
-        <v>-11.8763096572407</v>
+        <v>-2.87223124201307</v>
       </c>
       <c r="K18">
-        <v>-19.1752</v>
+        <v>-18.9714</v>
       </c>
       <c r="L18">
-        <v>7.29889034275929</v>
+        <v>16.0991687579869</v>
       </c>
       <c r="M18">
-        <v>261.75</v>
+        <v>270.35</v>
       </c>
       <c r="N18">
-        <v>0.00142180094786729</v>
+        <v>0.00714285714285714</v>
       </c>
       <c r="O18">
-        <v>10.28</v>
+        <v>21.074</v>
       </c>
       <c r="P18">
-        <v>0.299258058221101</v>
+        <v>0.022200418153115</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1330,43 +1330,43 @@
         <v>7000</v>
       </c>
       <c r="D19">
-        <v>3035</v>
+        <v>3003</v>
       </c>
       <c r="E19">
-        <v>-11.7</v>
+        <v>-4.3</v>
       </c>
       <c r="F19">
-        <v>-15.4</v>
+        <v>-4.2</v>
       </c>
       <c r="G19">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I19">
-        <v>3.7</v>
+        <v>-0.0999999999999996</v>
       </c>
       <c r="J19">
-        <v>-12.1486087334118</v>
+        <v>-4.41992847652972</v>
       </c>
       <c r="K19">
-        <v>-21.243</v>
+        <v>-21.0294</v>
       </c>
       <c r="L19">
-        <v>9.09439126658823</v>
+        <v>16.6094715234703</v>
       </c>
       <c r="M19">
-        <v>261.45</v>
+        <v>268.85</v>
       </c>
       <c r="N19">
-        <v>0.0011070110701107</v>
+        <v>0.00731707317073171</v>
       </c>
       <c r="O19">
-        <v>11.308</v>
+        <v>22.102</v>
       </c>
       <c r="P19">
-        <v>0.256841466394266</v>
+        <v>0.0189945793975112</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1377,46 +1377,46 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>6755</v>
+        <v>6753</v>
       </c>
       <c r="D20">
-        <v>3306</v>
+        <v>3290</v>
       </c>
       <c r="E20">
-        <v>-12</v>
+        <v>-6.4</v>
       </c>
       <c r="F20">
-        <v>-13.8</v>
+        <v>-6.4</v>
       </c>
       <c r="G20">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I20">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-12.4131841759033</v>
+        <v>-6.58969014113518</v>
       </c>
       <c r="K20">
-        <v>-23.8988</v>
+        <v>-23.842</v>
       </c>
       <c r="L20">
-        <v>11.4856158240967</v>
+        <v>17.2523098588648</v>
       </c>
       <c r="M20">
-        <v>261.15</v>
+        <v>266.75</v>
       </c>
       <c r="N20">
-        <v>0.000912408759124088</v>
+        <v>0.0057347670250896</v>
       </c>
       <c r="O20">
-        <v>12.85</v>
+        <v>23.13</v>
       </c>
       <c r="P20">
-        <v>0.203553632789165</v>
+        <v>0.0283570986700832</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1427,46 +1427,46 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>6296</v>
+        <v>6274</v>
       </c>
       <c r="D21">
-        <v>3854</v>
+        <v>3848</v>
       </c>
       <c r="E21">
-        <v>-12.5</v>
+        <v>-9.6</v>
       </c>
       <c r="F21">
-        <v>-14.1</v>
+        <v>-12.8</v>
       </c>
       <c r="G21">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I21">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="J21">
-        <v>-12.952613192406</v>
+        <v>-10.0145691800852</v>
       </c>
       <c r="K21">
-        <v>-29.2692</v>
+        <v>-29.3104</v>
       </c>
       <c r="L21">
-        <v>16.316586807594</v>
+        <v>19.2958308199148</v>
       </c>
       <c r="M21">
-        <v>260.65</v>
+        <v>263.55</v>
       </c>
       <c r="N21">
-        <v>0.00411184210526316</v>
+        <v>0.00570032573289902</v>
       </c>
       <c r="O21">
-        <v>18.504</v>
+        <v>23.644</v>
       </c>
       <c r="P21">
-        <v>0.0631842344307133</v>
+        <v>0.0276964054978336</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1477,46 +1477,46 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>5808</v>
+        <v>5779</v>
       </c>
       <c r="D22">
         <v>4462</v>
       </c>
       <c r="E22">
-        <v>-15</v>
+        <v>-13.1</v>
       </c>
       <c r="F22">
-        <v>-17</v>
+        <v>-18.1</v>
       </c>
       <c r="G22">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>-15.593245711765</v>
+        <v>-13.7425658582196</v>
       </c>
       <c r="K22">
-        <v>-35.2276</v>
+        <v>-35.3276</v>
       </c>
       <c r="L22">
-        <v>19.6343542882351</v>
+        <v>21.5850341417804</v>
       </c>
       <c r="M22">
-        <v>258.15</v>
+        <v>260.05</v>
       </c>
       <c r="N22">
-        <v>0.00488188976377953</v>
+        <v>0.00737833594976452</v>
       </c>
       <c r="O22">
-        <v>25.7</v>
+        <v>29.812</v>
       </c>
       <c r="P22">
-        <v>0.0286414592368092</v>
+        <v>0.0105335051916306</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1527,46 +1527,46 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>5323</v>
+        <v>5302</v>
       </c>
       <c r="D23">
-        <v>5097</v>
+        <v>5099</v>
       </c>
       <c r="E23">
-        <v>-18.1</v>
+        <v>-17.8</v>
       </c>
       <c r="F23">
-        <v>-20</v>
+        <v>-24.2</v>
       </c>
       <c r="G23">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H23">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I23">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="J23">
-        <v>-18.8622233846442</v>
+        <v>-18.7445952997919</v>
       </c>
       <c r="K23">
-        <v>-41.4506</v>
+        <v>-41.5702</v>
       </c>
       <c r="L23">
-        <v>22.5883766153558</v>
+        <v>22.8256047002081</v>
       </c>
       <c r="M23">
-        <v>255.05</v>
+        <v>255.35</v>
       </c>
       <c r="N23">
-        <v>0.00615384615384615</v>
+        <v>0.00814479638009049</v>
       </c>
       <c r="O23">
-        <v>29.812</v>
+        <v>30.84</v>
       </c>
       <c r="P23">
-        <v>0.0160392810620334</v>
+        <v>0.00692819481244476</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1580,43 +1580,43 @@
         <v>5000</v>
       </c>
       <c r="D24">
-        <v>5552</v>
+        <v>5541</v>
       </c>
       <c r="E24">
-        <v>-20.9</v>
+        <v>-21.4</v>
       </c>
       <c r="F24">
-        <v>-23.1</v>
+        <v>-30.2</v>
       </c>
       <c r="G24">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H24">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I24">
-        <v>2.2</v>
+        <v>8.8</v>
       </c>
       <c r="J24">
-        <v>-21.8396461166245</v>
+        <v>-22.6663098176522</v>
       </c>
       <c r="K24">
-        <v>-45.9096</v>
+        <v>-45.9018</v>
       </c>
       <c r="L24">
-        <v>24.0699538833755</v>
+        <v>23.2354901823478</v>
       </c>
       <c r="M24">
-        <v>252.25</v>
+        <v>251.75</v>
       </c>
       <c r="N24">
-        <v>0.00650887573964498</v>
+        <v>0.00773480662983427</v>
       </c>
       <c r="O24">
-        <v>30.326</v>
+        <v>31.354</v>
       </c>
       <c r="P24">
-        <v>0.0141709218521867</v>
+        <v>0.00842387807852643</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1627,46 +1627,46 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>4886</v>
+        <v>4882</v>
       </c>
       <c r="D25">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="E25">
-        <v>-22</v>
+        <v>-22.8</v>
       </c>
       <c r="F25">
-        <v>-24.3</v>
+        <v>-32.7</v>
       </c>
       <c r="G25">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25">
-        <v>2.3</v>
+        <v>9.9</v>
       </c>
       <c r="J25">
-        <v>-23.0124625068478</v>
+        <v>-24.21262829215</v>
       </c>
       <c r="K25">
-        <v>-47.5658</v>
+        <v>-47.6756</v>
       </c>
       <c r="L25">
-        <v>24.5533374931522</v>
+        <v>23.4629717078501</v>
       </c>
       <c r="M25">
-        <v>251.15</v>
+        <v>250.35</v>
       </c>
       <c r="N25">
-        <v>0.00702341137123746</v>
+        <v>0.00704697986577181</v>
       </c>
       <c r="O25">
-        <v>30.84</v>
+        <v>31.354</v>
       </c>
       <c r="P25">
-        <v>0.0116493969424517</v>
+        <v>0.0112126520216786</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1677,46 +1677,46 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="D26">
-        <v>6319</v>
+        <v>6318</v>
       </c>
       <c r="E26">
-        <v>-26.2</v>
+        <v>-27</v>
       </c>
       <c r="F26">
-        <v>-28.8</v>
+        <v>-40.8</v>
       </c>
       <c r="G26">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>2.6</v>
+        <v>13.8</v>
       </c>
       <c r="J26">
-        <v>-27.506169820084</v>
+        <v>-28.9524879066377</v>
       </c>
       <c r="K26">
-        <v>-53.4262</v>
+        <v>-53.5164</v>
       </c>
       <c r="L26">
-        <v>25.920030179916</v>
+        <v>24.5639120933623</v>
       </c>
       <c r="M26">
-        <v>246.95</v>
+        <v>246.15</v>
       </c>
       <c r="N26">
-        <v>0.00732984293193717</v>
+        <v>0.00719298245614035</v>
       </c>
       <c r="O26">
-        <v>31.868</v>
+        <v>35.98</v>
       </c>
       <c r="P26">
-        <v>0.00989686946597029</v>
+        <v>0.00821055891590299</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1727,46 +1727,46 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="D27">
-        <v>6892</v>
+        <v>6888</v>
       </c>
       <c r="E27">
-        <v>-30.4</v>
+        <v>-31.1</v>
       </c>
       <c r="F27">
-        <v>-33.1</v>
+        <v>-46.1</v>
       </c>
       <c r="G27">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="H27">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I27">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="J27">
-        <v>-32.0277930211296</v>
+        <v>-33.507232839254</v>
       </c>
       <c r="K27">
-        <v>-59.0416</v>
+        <v>-59.1024</v>
       </c>
       <c r="L27">
-        <v>27.0138069788704</v>
+        <v>25.595167160746</v>
       </c>
       <c r="M27">
-        <v>242.75</v>
+        <v>242.05</v>
       </c>
       <c r="N27">
-        <v>0.00791366906474821</v>
+        <v>0.00817843866171002</v>
       </c>
       <c r="O27">
-        <v>34.438</v>
+        <v>38.55</v>
       </c>
       <c r="P27">
-        <v>0.00663209304990368</v>
+        <v>0.00458593473048199</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1780,43 +1780,43 @@
         <v>4000</v>
       </c>
       <c r="D28">
-        <v>7170</v>
+        <v>7157</v>
       </c>
       <c r="E28">
-        <v>-32.6</v>
+        <v>-33.3</v>
       </c>
       <c r="F28">
-        <v>-35.6</v>
+        <v>-49</v>
       </c>
       <c r="G28">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="H28">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>15.7</v>
       </c>
       <c r="J28">
-        <v>-34.4258359668782</v>
+        <v>-35.974092604613</v>
       </c>
       <c r="K28">
-        <v>-61.766</v>
+        <v>-61.7386</v>
       </c>
       <c r="L28">
-        <v>27.3401640331218</v>
+        <v>25.764507395387</v>
       </c>
       <c r="M28">
-        <v>240.55</v>
+        <v>239.85</v>
       </c>
       <c r="N28">
-        <v>0.00808823529411763</v>
+        <v>0.00788530465949822</v>
       </c>
       <c r="O28">
-        <v>35.466</v>
+        <v>38.036</v>
       </c>
       <c r="P28">
-        <v>0.00574440792689042</v>
+        <v>0.00558264109943254</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1827,46 +1827,46 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>3849</v>
+        <v>3841</v>
       </c>
       <c r="D29">
-        <v>7442</v>
+        <v>7436</v>
       </c>
       <c r="E29">
-        <v>-34.8</v>
+        <v>-35.5</v>
       </c>
       <c r="F29">
-        <v>-38</v>
+        <v>-51.9</v>
       </c>
       <c r="G29">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I29">
-        <v>3.2</v>
+        <v>16.4</v>
       </c>
       <c r="J29">
-        <v>-36.829090667202</v>
+        <v>-38.4641887740525</v>
       </c>
       <c r="K29">
-        <v>-64.4316</v>
+        <v>-64.4728</v>
       </c>
       <c r="L29">
-        <v>27.602509332798</v>
+        <v>26.0086112259475</v>
       </c>
       <c r="M29">
-        <v>238.35</v>
+        <v>237.65</v>
       </c>
       <c r="N29">
-        <v>0.00935114503816795</v>
+        <v>0.008206106870229</v>
       </c>
       <c r="O29">
-        <v>36.494</v>
+        <v>37.522</v>
       </c>
       <c r="P29">
-        <v>0.00157255168885207</v>
+        <v>0.0048491617820082</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1877,46 +1877,46 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="D30">
-        <v>7966</v>
+        <v>7960</v>
       </c>
       <c r="E30">
-        <v>-39.7</v>
+        <v>-39.8</v>
       </c>
       <c r="F30">
-        <v>-43.5</v>
+        <v>-62.1</v>
       </c>
       <c r="G30">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30">
-        <v>3.8</v>
+        <v>22.3</v>
       </c>
       <c r="J30">
-        <v>-42.2186137398369</v>
+        <v>-43.7511066441017</v>
       </c>
       <c r="K30">
-        <v>-69.5668</v>
+        <v>-69.608</v>
       </c>
       <c r="L30">
-        <v>27.3481862601631</v>
+        <v>25.8568933558983</v>
       </c>
       <c r="M30">
-        <v>233.45</v>
+        <v>233.35</v>
       </c>
       <c r="N30">
-        <v>0.0100401606425703</v>
+        <v>0.00741482965931864</v>
       </c>
       <c r="O30">
-        <v>37.522</v>
+        <v>37.008</v>
       </c>
       <c r="P30">
-        <v>-0.000537728547079552</v>
+        <v>0.00750549068977685</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1927,46 +1927,46 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>3322</v>
+        <v>3301</v>
       </c>
       <c r="D31">
-        <v>8464</v>
+        <v>8459</v>
       </c>
       <c r="E31">
-        <v>-44.7</v>
+        <v>-43.5</v>
       </c>
       <c r="F31">
-        <v>-48.8</v>
+        <v>-88.3</v>
       </c>
       <c r="G31">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H31">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31">
-        <v>4.09999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="J31">
-        <v>-47.7443509466703</v>
+        <v>-50.425857643178</v>
       </c>
       <c r="K31">
-        <v>-74.4472</v>
+        <v>-74.4982</v>
       </c>
       <c r="L31">
-        <v>26.7028490533297</v>
+        <v>24.072342356822</v>
       </c>
       <c r="M31">
-        <v>228.45</v>
+        <v>229.65</v>
       </c>
       <c r="N31">
-        <v>0.00911016949152542</v>
+        <v>0.00694736842105263</v>
       </c>
       <c r="O31">
-        <v>38.036</v>
+        <v>38.55</v>
       </c>
       <c r="P31">
-        <v>0.00222562132648053</v>
+        <v>0.00837219522363302</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1977,46 +1977,46 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D32">
-        <v>8936</v>
+        <v>8934</v>
       </c>
       <c r="E32">
-        <v>-49</v>
+        <v>-46.8</v>
       </c>
       <c r="F32">
-        <v>-54.5</v>
+        <v>-136</v>
       </c>
       <c r="G32">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H32">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I32">
-        <v>5.5</v>
+        <v>89.2</v>
       </c>
       <c r="J32">
-        <v>-52.7004397533836</v>
+        <v>-62.6858437093407</v>
       </c>
       <c r="K32">
-        <v>-79.0728</v>
+        <v>-79.1532</v>
       </c>
       <c r="L32">
-        <v>26.3723602466164</v>
+        <v>16.4673562906593</v>
       </c>
       <c r="M32">
-        <v>224.15</v>
+        <v>226.35</v>
       </c>
       <c r="N32">
-        <v>0.00670731707317074</v>
+        <v>0.00736196319018407</v>
       </c>
       <c r="O32">
-        <v>39.064</v>
+        <v>42.148</v>
       </c>
       <c r="P32">
-        <v>0.00904184663709364</v>
+        <v>0.00609443429790809</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2030,43 +2030,43 @@
         <v>3000</v>
       </c>
       <c r="D33">
-        <v>9100</v>
+        <v>9097</v>
       </c>
       <c r="E33">
-        <v>-50.1</v>
+        <v>-48</v>
       </c>
       <c r="F33">
-        <v>-57</v>
+        <v>-113.5</v>
       </c>
       <c r="G33">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H33">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I33">
-        <v>6.9</v>
+        <v>65.5</v>
       </c>
       <c r="J33">
-        <v>-54.1001845091775</v>
+        <v>-59.3129940711436</v>
       </c>
       <c r="K33">
-        <v>-80.68</v>
+        <v>-80.7506</v>
       </c>
       <c r="L33">
-        <v>26.5798154908225</v>
+        <v>21.4376059288564</v>
       </c>
       <c r="M33">
-        <v>223.05</v>
+        <v>225.15</v>
       </c>
       <c r="N33">
-        <v>0.00669014084507042</v>
+        <v>0.00726643598615917</v>
       </c>
       <c r="O33">
-        <v>39.578</v>
+        <v>43.69</v>
       </c>
       <c r="P33">
-        <v>0.00890018547670663</v>
+        <v>0.00592011220812814</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2077,46 +2077,46 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D34">
-        <v>9384</v>
+        <v>9386</v>
       </c>
       <c r="E34">
-        <v>-52</v>
+        <v>-50.1</v>
       </c>
       <c r="F34">
-        <v>-61.4</v>
+        <v>-73.8</v>
       </c>
       <c r="G34">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H34">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I34">
-        <v>9.4</v>
+        <v>23.7</v>
       </c>
       <c r="J34">
-        <v>-56.5646236473596</v>
+        <v>-56.018496341875</v>
       </c>
       <c r="K34">
-        <v>-83.4632</v>
+        <v>-83.5828</v>
       </c>
       <c r="L34">
-        <v>26.8985763526404</v>
+        <v>27.564303658125</v>
       </c>
       <c r="M34">
-        <v>221.15</v>
+        <v>223.05</v>
       </c>
       <c r="N34">
-        <v>0.00441860465116279</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="O34">
-        <v>40.092</v>
+        <v>45.746</v>
       </c>
       <c r="P34">
-        <v>0.0150167828728041</v>
+        <v>0.00369501321601003</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2127,46 +2127,46 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>2700</v>
+        <v>2685</v>
       </c>
       <c r="D35">
-        <v>9814</v>
+        <v>9818</v>
       </c>
       <c r="E35">
-        <v>-53.9</v>
+        <v>-53.6</v>
       </c>
       <c r="F35">
-        <v>-65.8</v>
+        <v>-68.9</v>
       </c>
       <c r="G35">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H35">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I35">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
       <c r="J35">
-        <v>-59.1687034040147</v>
+        <v>-59.2475480682187</v>
       </c>
       <c r="K35">
-        <v>-87.6772</v>
+        <v>-87.8164</v>
       </c>
       <c r="L35">
-        <v>28.5084965959853</v>
+        <v>28.5688519317813</v>
       </c>
       <c r="M35">
-        <v>219.25</v>
+        <v>219.55</v>
       </c>
       <c r="N35">
-        <v>0.0038369304556355</v>
+        <v>0.00697115384615384</v>
       </c>
       <c r="O35">
-        <v>40.606</v>
+        <v>48.316</v>
       </c>
       <c r="P35">
-        <v>0.0163443202206798</v>
+        <v>0.00552940033827875</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2177,46 +2177,46 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="D36">
-        <v>10231</v>
+        <v>10234</v>
       </c>
       <c r="E36">
-        <v>-55.5</v>
+        <v>-56.5</v>
       </c>
       <c r="F36">
-        <v>-70.1</v>
+        <v>-69.2</v>
       </c>
       <c r="G36">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H36">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I36">
-        <v>14.6</v>
+        <v>12.7</v>
       </c>
       <c r="J36">
-        <v>-61.5958516230554</v>
+        <v>-62.465572682757</v>
       </c>
       <c r="K36">
-        <v>-91.7638</v>
+        <v>-91.8932</v>
       </c>
       <c r="L36">
-        <v>30.1679483769447</v>
+        <v>29.427627317243</v>
       </c>
       <c r="M36">
-        <v>217.65</v>
+        <v>216.65</v>
       </c>
       <c r="N36">
-        <v>0.00370370370370376</v>
+        <v>0.00624999999999994</v>
       </c>
       <c r="O36">
-        <v>39.064</v>
+        <v>50.372</v>
       </c>
       <c r="P36">
-        <v>0.0181834558810495</v>
+        <v>0.0064422730274742</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2230,43 +2230,43 @@
         <v>2500</v>
       </c>
       <c r="D37">
-        <v>10285</v>
+        <v>10282</v>
       </c>
       <c r="E37">
-        <v>-55.7</v>
+        <v>-56.8</v>
       </c>
       <c r="F37">
-        <v>-70.2</v>
+        <v>-69.3</v>
       </c>
       <c r="G37">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H37">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I37">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="J37">
-        <v>-61.8520417793689</v>
+        <v>-62.8132327912322</v>
       </c>
       <c r="K37">
-        <v>-92.293</v>
+        <v>-92.3636</v>
       </c>
       <c r="L37">
-        <v>30.4409582206311</v>
+        <v>29.5503672087678</v>
       </c>
       <c r="M37">
-        <v>217.45</v>
+        <v>216.35</v>
       </c>
       <c r="N37">
-        <v>0.00257879656160458</v>
+        <v>0.00539772727272729</v>
       </c>
       <c r="O37">
-        <v>38.55</v>
+        <v>50.372</v>
       </c>
       <c r="P37">
-        <v>0.0221036500496512</v>
+        <v>0.00797424966168575</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2277,46 +2277,46 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="D38">
         <v>10634</v>
       </c>
       <c r="E38">
-        <v>-56.6</v>
+        <v>-58.7</v>
       </c>
       <c r="F38">
-        <v>-70.9</v>
+        <v>-70.3</v>
       </c>
       <c r="G38">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H38">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I38">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="J38">
-        <v>-63.1361954506585</v>
+        <v>-65.1078335870813</v>
       </c>
       <c r="K38">
-        <v>-95.7132</v>
+        <v>-95.8132</v>
       </c>
       <c r="L38">
-        <v>32.5770045493415</v>
+        <v>30.7053664129187</v>
       </c>
       <c r="M38">
-        <v>216.55</v>
+        <v>214.45</v>
       </c>
       <c r="N38">
-        <v>0.00201005025125627</v>
+        <v>0.00126582278481013</v>
       </c>
       <c r="O38">
-        <v>35.466</v>
+        <v>50.886</v>
       </c>
       <c r="P38">
-        <v>0.0282717880599968</v>
+        <v>0.0151827567613844</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2327,46 +2327,46 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="D39">
-        <v>11032</v>
+        <v>11029</v>
       </c>
       <c r="E39">
-        <v>-57.4</v>
+        <v>-59.2</v>
       </c>
       <c r="F39">
-        <v>-70.8</v>
+        <v>-69.8</v>
       </c>
       <c r="G39">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H39">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I39">
-        <v>13.4</v>
+        <v>10.6</v>
       </c>
       <c r="J39">
-        <v>-64.3059822489209</v>
+        <v>-65.9332871441708</v>
       </c>
       <c r="K39">
-        <v>-99.6136</v>
+        <v>-99.6842</v>
       </c>
       <c r="L39">
-        <v>35.3076177510791</v>
+        <v>33.7509128558292</v>
       </c>
       <c r="M39">
-        <v>215.75</v>
+        <v>213.95</v>
       </c>
       <c r="N39">
-        <v>0.00048192771084338</v>
+        <v>-0.0016949152542373</v>
       </c>
       <c r="O39">
-        <v>31.354</v>
+        <v>49.858</v>
       </c>
       <c r="P39">
-        <v>0.0433756375321112</v>
+        <v>0.0213134509906578</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2377,46 +2377,46 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="D40">
-        <v>11447</v>
+        <v>11442</v>
       </c>
       <c r="E40">
-        <v>-57.6</v>
+        <v>-58.5</v>
       </c>
       <c r="F40">
-        <v>-71.2</v>
+        <v>-69.2</v>
       </c>
       <c r="G40">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I40">
-        <v>13.6</v>
+        <v>10.7</v>
       </c>
       <c r="J40">
-        <v>-65.010502152584</v>
+        <v>-65.6099898590223</v>
       </c>
       <c r="K40">
-        <v>-103.6806</v>
+        <v>-103.7316</v>
       </c>
       <c r="L40">
-        <v>38.670097847416</v>
+        <v>38.1216101409777</v>
       </c>
       <c r="M40">
-        <v>215.55</v>
+        <v>214.65</v>
       </c>
       <c r="N40">
-        <v>-0.00202247191011236</v>
+        <v>-0.0045045045045045</v>
       </c>
       <c r="O40">
-        <v>28.784</v>
+        <v>48.316</v>
       </c>
       <c r="P40">
-        <v>0.0652717842335487</v>
+        <v>0.0281220398435992</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2427,46 +2427,46 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="D41">
-        <v>11892</v>
+        <v>11886</v>
       </c>
       <c r="E41">
-        <v>-56.7</v>
+        <v>-56.5</v>
       </c>
       <c r="F41">
-        <v>-73.6</v>
+        <v>-70.7</v>
       </c>
       <c r="G41">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="H41">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I41">
-        <v>16.9</v>
+        <v>14.2</v>
       </c>
       <c r="J41">
-        <v>-65.0389209578788</v>
+        <v>-64.4112652005583</v>
       </c>
       <c r="K41">
-        <v>-108.0416</v>
+        <v>-108.0828</v>
       </c>
       <c r="L41">
-        <v>43.0026790421212</v>
+        <v>43.6715347994417</v>
       </c>
       <c r="M41">
-        <v>216.45</v>
+        <v>216.65</v>
       </c>
       <c r="N41">
-        <v>-0.00311850311850312</v>
+        <v>-0.00661157024793389</v>
       </c>
       <c r="O41">
-        <v>27.242</v>
+        <v>44.718</v>
       </c>
       <c r="P41">
-        <v>0.0792607259713081</v>
+        <v>0.0372975730794198</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2477,46 +2477,46 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="D42">
-        <v>12373</v>
+        <v>12370</v>
       </c>
       <c r="E42">
-        <v>-55.2</v>
+        <v>-53.3</v>
       </c>
       <c r="F42">
-        <v>-76.7</v>
+        <v>-73.6</v>
       </c>
       <c r="G42">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I42">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="J42">
-        <v>-64.7577612675516</v>
+        <v>-62.4291176825714</v>
       </c>
       <c r="K42">
-        <v>-112.7554</v>
+        <v>-112.826</v>
       </c>
       <c r="L42">
-        <v>47.9976387324485</v>
+        <v>50.3968823174286</v>
       </c>
       <c r="M42">
-        <v>217.95</v>
+        <v>219.85</v>
       </c>
       <c r="N42">
-        <v>-0.00266666666666668</v>
+        <v>-0.00452830188679245</v>
       </c>
       <c r="O42">
-        <v>25.186</v>
+        <v>38.036</v>
       </c>
       <c r="P42">
-        <v>0.0888851596943433</v>
+        <v>0.0443774559237645</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2527,46 +2527,46 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D43">
-        <v>12898</v>
+        <v>12900</v>
       </c>
       <c r="E43">
-        <v>-53.8</v>
+        <v>-50.9</v>
       </c>
       <c r="F43">
-        <v>-79.3</v>
+        <v>-77.8</v>
       </c>
       <c r="G43">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I43">
-        <v>25.5</v>
+        <v>26.9</v>
       </c>
       <c r="J43">
-        <v>-64.7048684389245</v>
+        <v>-61.6780704642607</v>
       </c>
       <c r="K43">
-        <v>-117.9004</v>
+        <v>-118.02</v>
       </c>
       <c r="L43">
-        <v>53.1955315610755</v>
+        <v>56.3419295357393</v>
       </c>
       <c r="M43">
-        <v>219.35</v>
+        <v>222.25</v>
       </c>
       <c r="N43">
-        <v>0.00017452006980803</v>
+        <v>0.00155440414507772</v>
       </c>
       <c r="O43">
-        <v>22.616</v>
+        <v>29.298</v>
       </c>
       <c r="P43">
-        <v>0.0846878140793444</v>
+        <v>0.0427092635879475</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2577,46 +2577,46 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D44">
-        <v>13471</v>
+        <v>13479</v>
       </c>
       <c r="E44">
-        <v>-53.9</v>
+        <v>-51.8</v>
       </c>
       <c r="F44">
-        <v>-81.2</v>
+        <v>-82.4</v>
       </c>
       <c r="G44">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I44">
-        <v>27.3</v>
+        <v>30.6</v>
       </c>
       <c r="J44">
-        <v>-66.178255256518</v>
+        <v>-64.4838264337218</v>
       </c>
       <c r="K44">
-        <v>-123.5158</v>
+        <v>-123.6942</v>
       </c>
       <c r="L44">
-        <v>57.337544743482</v>
+        <v>59.2103735662782</v>
       </c>
       <c r="M44">
-        <v>219.25</v>
+        <v>221.35</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>0.00147058823529414</v>
       </c>
       <c r="O44">
-        <v>20.56</v>
+        <v>21.588</v>
       </c>
       <c r="P44">
-        <v>0.104366254948449</v>
+        <v>0.0797803933102453</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2630,43 +2630,43 @@
         <v>1500</v>
       </c>
       <c r="D45">
-        <v>13551</v>
+        <v>13547</v>
       </c>
       <c r="E45">
-        <v>-53.9</v>
+        <v>-51.9</v>
       </c>
       <c r="F45">
-        <v>-81.4</v>
+        <v>-82.8</v>
       </c>
       <c r="G45">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H45">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I45">
-        <v>27.5</v>
+        <v>30.9</v>
       </c>
       <c r="J45">
-        <v>-66.3688607579579</v>
+        <v>-64.7953334148442</v>
       </c>
       <c r="K45">
-        <v>-124.2998</v>
+        <v>-124.3606</v>
       </c>
       <c r="L45">
-        <v>57.9309392420421</v>
+        <v>59.5652665851559</v>
       </c>
       <c r="M45">
-        <v>219.25</v>
+        <v>221.25</v>
       </c>
       <c r="N45">
-        <v>-0.000546448087431689</v>
+        <v>0.00212389380530974</v>
       </c>
       <c r="O45">
-        <v>20.56</v>
+        <v>21.588</v>
       </c>
       <c r="P45">
-        <v>0.110150305699867</v>
+        <v>0.0736009350797399</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2677,46 +2677,46 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D46">
-        <v>14100</v>
+        <v>14112</v>
       </c>
       <c r="E46">
-        <v>-53.6</v>
+        <v>-53.1</v>
       </c>
       <c r="F46">
-        <v>-82.7</v>
+        <v>-86.2</v>
       </c>
       <c r="G46">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I46">
-        <v>29.1</v>
+        <v>33.1</v>
       </c>
       <c r="J46">
-        <v>-67.4430121364203</v>
+        <v>-67.8641547645027</v>
       </c>
       <c r="K46">
-        <v>-129.68</v>
+        <v>-129.8976</v>
       </c>
       <c r="L46">
-        <v>62.2369878635797</v>
+        <v>62.0334452354973</v>
       </c>
       <c r="M46">
-        <v>219.55</v>
+        <v>220.05</v>
       </c>
       <c r="N46">
-        <v>-0.00185185185185186</v>
+        <v>0.00114449213161659</v>
       </c>
       <c r="O46">
-        <v>21.588</v>
+        <v>21.074</v>
       </c>
       <c r="P46">
-        <v>0.112288768109123</v>
+        <v>0.0874875757113556</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2727,46 +2727,46 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D47">
-        <v>14802</v>
+        <v>14811</v>
       </c>
       <c r="E47">
-        <v>-52.3</v>
+        <v>-53.9</v>
       </c>
       <c r="F47">
-        <v>-83.6</v>
+        <v>-86</v>
       </c>
       <c r="G47">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H47">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I47">
-        <v>31.3</v>
+        <v>32.1</v>
       </c>
       <c r="J47">
-        <v>-67.9312149360357</v>
+        <v>-70.1252995904107</v>
       </c>
       <c r="K47">
-        <v>-136.5596</v>
+        <v>-136.7478</v>
       </c>
       <c r="L47">
-        <v>68.6283850639643</v>
+        <v>66.6225004095893</v>
       </c>
       <c r="M47">
-        <v>220.85</v>
+        <v>219.25</v>
       </c>
       <c r="N47">
-        <v>-0.0013906447534766</v>
+        <v>-0.000382653061224486</v>
       </c>
       <c r="O47">
-        <v>24.672</v>
+        <v>21.588</v>
       </c>
       <c r="P47">
-        <v>0.082099460417017</v>
+        <v>0.0983370213130091</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2777,46 +2777,46 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D48">
-        <v>15593</v>
+        <v>15595</v>
       </c>
       <c r="E48">
-        <v>-51.2</v>
+        <v>-53.6</v>
       </c>
       <c r="F48">
-        <v>-84.3</v>
+        <v>-85.4</v>
       </c>
       <c r="G48">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H48">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I48">
-        <v>33.1</v>
+        <v>31.8</v>
       </c>
       <c r="J48">
-        <v>-68.9946912467743</v>
+        <v>-71.5767018060158</v>
       </c>
       <c r="K48">
-        <v>-144.3114</v>
+        <v>-144.431</v>
       </c>
       <c r="L48">
-        <v>75.3167087532257</v>
+        <v>72.8542981939842</v>
       </c>
       <c r="M48">
-        <v>221.95</v>
+        <v>219.55</v>
       </c>
       <c r="N48">
-        <v>0.000173010380622828</v>
+        <v>-0.000541516245487372</v>
       </c>
       <c r="O48">
-        <v>22.616</v>
+        <v>20.56</v>
       </c>
       <c r="P48">
-        <v>0.0837087971506143</v>
+        <v>0.109947661577589</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2830,43 +2830,43 @@
         <v>1000</v>
       </c>
       <c r="D49">
-        <v>16171</v>
+        <v>16149</v>
       </c>
       <c r="E49">
-        <v>-51.3</v>
+        <v>-53.3</v>
       </c>
       <c r="F49">
-        <v>-84.4</v>
+        <v>-85.1</v>
       </c>
       <c r="G49">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H49">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I49">
-        <v>33.1</v>
+        <v>31.8</v>
       </c>
       <c r="J49">
-        <v>-70.6616358289174</v>
+        <v>-72.713079445342</v>
       </c>
       <c r="K49">
-        <v>-149.9758</v>
+        <v>-149.8602</v>
       </c>
       <c r="L49">
-        <v>79.3141641710826</v>
+        <v>77.147120554658</v>
       </c>
       <c r="M49">
-        <v>221.85</v>
+        <v>219.85</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>-0.000619195046439615</v>
       </c>
       <c r="O49">
-        <v>19.018</v>
+        <v>18.504</v>
       </c>
       <c r="P49">
-        <v>0.120547110026256</v>
+        <v>0.13656494109967</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2877,46 +2877,46 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D50">
-        <v>16479</v>
+        <v>16472</v>
       </c>
       <c r="E50">
-        <v>-51.3</v>
+        <v>-53.1</v>
       </c>
       <c r="F50">
-        <v>-84.5</v>
+        <v>-85</v>
       </c>
       <c r="G50">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H50">
         <v>33</v>
       </c>
       <c r="I50">
-        <v>33.2</v>
+        <v>31.9</v>
       </c>
       <c r="J50">
-        <v>-71.5632333457199</v>
+        <v>-73.4249933113445</v>
       </c>
       <c r="K50">
-        <v>-152.9942</v>
+        <v>-153.0256</v>
       </c>
       <c r="L50">
-        <v>81.4309666542802</v>
+        <v>79.6006066886556</v>
       </c>
       <c r="M50">
-        <v>221.85</v>
+        <v>220.05</v>
       </c>
       <c r="N50">
-        <v>0.000968783638320781</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>16.962</v>
       </c>
       <c r="P50">
-        <v>0.136652202299451</v>
+        <v>0.152781381124107</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2930,43 +2930,43 @@
         <v>820</v>
       </c>
       <c r="D51">
-        <v>17408</v>
+        <v>17395</v>
       </c>
       <c r="E51">
-        <v>-52.2</v>
+        <v>-53.1</v>
       </c>
       <c r="F51">
-        <v>-84.3</v>
+        <v>-84.4</v>
       </c>
       <c r="G51">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I51">
-        <v>32.1</v>
+        <v>31.3</v>
       </c>
       <c r="J51">
-        <v>-75.2359758970487</v>
+        <v>-76.0799343788995</v>
       </c>
       <c r="K51">
-        <v>-162.0984</v>
+        <v>-162.071</v>
       </c>
       <c r="L51">
-        <v>86.8624241029514</v>
+        <v>85.9910656211005</v>
       </c>
       <c r="M51">
-        <v>220.95</v>
+        <v>220.05</v>
       </c>
       <c r="N51">
-        <v>-0.000559284116331096</v>
+        <v>-0.00089686098654709</v>
       </c>
       <c r="O51">
-        <v>14.392</v>
+        <v>13.878</v>
       </c>
       <c r="P51">
-        <v>0.223342092878563</v>
+        <v>0.24898857767792</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2977,46 +2977,46 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D52">
-        <v>18302</v>
+        <v>18287</v>
       </c>
       <c r="E52">
-        <v>-51.7</v>
+        <v>-52.3</v>
       </c>
       <c r="F52">
-        <v>-84</v>
+        <v>-84.1</v>
       </c>
       <c r="G52">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H52">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52">
-        <v>32.3</v>
+        <v>31.8</v>
       </c>
       <c r="J52">
-        <v>-77.6206578240912</v>
+        <v>-78.2244309703973</v>
       </c>
       <c r="K52">
-        <v>-170.8596</v>
+        <v>-170.8126</v>
       </c>
       <c r="L52">
-        <v>93.2389421759088</v>
+        <v>92.5881690296027</v>
       </c>
       <c r="M52">
-        <v>221.45</v>
+        <v>220.85</v>
       </c>
       <c r="N52">
-        <v>0.000653594771241793</v>
+        <v>-0.000719424460431614</v>
       </c>
       <c r="O52">
-        <v>11.308</v>
+        <v>10.28</v>
       </c>
       <c r="P52">
-        <v>0.318942071049642</v>
+        <v>0.444679815106989</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3030,43 +3030,43 @@
         <v>700</v>
       </c>
       <c r="D53">
-        <v>18455</v>
+        <v>18426</v>
       </c>
       <c r="E53">
-        <v>-51.8</v>
+        <v>-52.2</v>
       </c>
       <c r="F53">
-        <v>-84</v>
+        <v>-84.1</v>
       </c>
       <c r="G53">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="J53">
-        <v>-78.2304448989439</v>
+        <v>-78.6254741787382</v>
       </c>
       <c r="K53">
-        <v>-172.359</v>
+        <v>-172.1748</v>
       </c>
       <c r="L53">
-        <v>94.1285551010561</v>
+        <v>93.5493258212618</v>
       </c>
       <c r="M53">
-        <v>221.35</v>
+        <v>220.95</v>
       </c>
       <c r="N53">
-        <v>0.000284090909090913</v>
+        <v>-0.00083682008368201</v>
       </c>
       <c r="O53">
-        <v>10.28</v>
+        <v>9.766</v>
       </c>
       <c r="P53">
-        <v>0.401590347948281</v>
+        <v>0.497962057592858</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3077,46 +3077,46 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D54">
-        <v>19159</v>
+        <v>19143</v>
       </c>
       <c r="E54">
-        <v>-52</v>
+        <v>-51.6</v>
       </c>
       <c r="F54">
-        <v>-84.1</v>
+        <v>-84.2</v>
       </c>
       <c r="G54">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="J54">
-        <v>-80.962859039148</v>
+        <v>-80.7822058474066</v>
       </c>
       <c r="K54">
-        <v>-179.2582</v>
+        <v>-179.2014</v>
       </c>
       <c r="L54">
-        <v>98.295340960852</v>
+        <v>98.4191941525934</v>
       </c>
       <c r="M54">
-        <v>221.15</v>
+        <v>221.55</v>
       </c>
       <c r="N54">
-        <v>-0.000340522133938703</v>
+        <v>0.000795454545454541</v>
       </c>
       <c r="O54">
-        <v>6.682</v>
+        <v>7.196</v>
       </c>
       <c r="P54">
-        <v>1.01342478999686</v>
+        <v>0.775105778764318</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3127,46 +3127,46 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D55">
-        <v>20040</v>
+        <v>20023</v>
       </c>
       <c r="E55">
-        <v>-51.7</v>
+        <v>-52.3</v>
       </c>
       <c r="F55">
-        <v>-84.3</v>
+        <v>-84.5</v>
       </c>
       <c r="G55">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="J55">
-        <v>-84.4462607137654</v>
+        <v>-85.1616911574044</v>
       </c>
       <c r="K55">
-        <v>-187.892</v>
+        <v>-187.8254</v>
       </c>
       <c r="L55">
-        <v>103.445739286235</v>
+        <v>102.663708842596</v>
       </c>
       <c r="M55">
-        <v>221.45</v>
+        <v>220.85</v>
       </c>
       <c r="N55">
-        <v>-0.00113636363636364</v>
+        <v>-0.00100502512562813</v>
       </c>
       <c r="O55">
-        <v>6.168</v>
+        <v>5.654</v>
       </c>
       <c r="P55">
-        <v>1.28042364561274</v>
+        <v>1.50970026211904</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3180,43 +3180,43 @@
         <v>500</v>
       </c>
       <c r="D56">
-        <v>20656</v>
+        <v>20620</v>
       </c>
       <c r="E56">
-        <v>-51</v>
+        <v>-51.7</v>
       </c>
       <c r="F56">
-        <v>-84.5</v>
+        <v>-84.6</v>
       </c>
       <c r="G56">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56">
-        <v>33.5</v>
+        <v>32.9</v>
       </c>
       <c r="J56">
-        <v>-86.718203513476</v>
+        <v>-87.3605406018086</v>
       </c>
       <c r="K56">
-        <v>-193.9288</v>
+        <v>-193.676</v>
       </c>
       <c r="L56">
-        <v>107.210596486524</v>
+        <v>106.315459398191</v>
       </c>
       <c r="M56">
-        <v>222.15</v>
+        <v>221.45</v>
       </c>
       <c r="N56">
-        <v>-0.0012012012012012</v>
+        <v>-0.00114613180515761</v>
       </c>
       <c r="O56">
-        <v>6.168</v>
+        <v>6.682</v>
       </c>
       <c r="P56">
-        <v>1.28391493819514</v>
+        <v>1.09198101937585</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3227,46 +3227,46 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D57">
-        <v>20989</v>
+        <v>20969</v>
       </c>
       <c r="E57">
-        <v>-50.6</v>
+        <v>-51.3</v>
       </c>
       <c r="F57">
         <v>-84.6</v>
       </c>
       <c r="G57">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I57">
-        <v>34</v>
+        <v>33.3</v>
       </c>
       <c r="J57">
-        <v>-88.0068325622462</v>
+        <v>-88.6545975985201</v>
       </c>
       <c r="K57">
-        <v>-197.1922</v>
+        <v>-197.0962</v>
       </c>
       <c r="L57">
-        <v>109.185367437754</v>
+        <v>108.44160240148</v>
       </c>
       <c r="M57">
-        <v>222.55</v>
+        <v>221.85</v>
       </c>
       <c r="N57">
-        <v>-0.00183752417794971</v>
+        <v>-0.0016504854368932</v>
       </c>
       <c r="O57">
-        <v>6.168</v>
+        <v>7.196</v>
       </c>
       <c r="P57">
-        <v>1.35533492684382</v>
+        <v>0.982926184851479</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3277,46 +3277,46 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D58">
-        <v>22023</v>
+        <v>21999</v>
       </c>
       <c r="E58">
-        <v>-48.7</v>
+        <v>-49.6</v>
       </c>
       <c r="F58">
-        <v>-85.2</v>
+        <v>-85.1</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="H58">
         <v>9</v>
       </c>
       <c r="I58">
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="J58">
-        <v>-92.0810770049171</v>
+        <v>-92.8295189048306</v>
       </c>
       <c r="K58">
-        <v>-207.3254</v>
+        <v>-207.1902</v>
       </c>
       <c r="L58">
-        <v>115.244322995083</v>
+        <v>114.360681095169</v>
       </c>
       <c r="M58">
-        <v>224.45</v>
+        <v>223.55</v>
       </c>
       <c r="N58">
-        <v>-0.00131233595800525</v>
+        <v>-0.00192982456140351</v>
       </c>
       <c r="O58">
         <v>4.626</v>
       </c>
       <c r="P58">
-        <v>2.28182391475528</v>
+        <v>2.41763324435854</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3330,43 +3330,43 @@
         <v>341</v>
       </c>
       <c r="D59">
-        <v>23166</v>
+        <v>23139</v>
       </c>
       <c r="E59">
-        <v>-47.2</v>
+        <v>-47.4</v>
       </c>
       <c r="F59">
-        <v>-86.1</v>
+        <v>-86.4</v>
       </c>
       <c r="G59">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I59">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J59">
-        <v>-97.8946871455271</v>
+        <v>-98.2646036472107</v>
       </c>
       <c r="K59">
-        <v>-218.5268</v>
+        <v>-218.3622</v>
       </c>
       <c r="L59">
-        <v>120.632112854473</v>
+        <v>120.097596352789</v>
       </c>
       <c r="M59">
-        <v>225.95</v>
+        <v>225.75</v>
       </c>
       <c r="N59">
-        <v>-0.000928074245939677</v>
+        <v>-0.0011609907120743</v>
       </c>
       <c r="O59">
-        <v>7.71</v>
+        <v>6.168</v>
       </c>
       <c r="P59">
-        <v>0.787937612732637</v>
+        <v>1.2588475954973</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3377,46 +3377,46 @@
         <v>5</v>
       </c>
       <c r="C60">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D60">
-        <v>24459</v>
+        <v>24431</v>
       </c>
       <c r="E60">
-        <v>-46</v>
+        <v>-45.9</v>
       </c>
       <c r="F60">
-        <v>-87</v>
+        <v>-87.4</v>
       </c>
       <c r="G60">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H60">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="J60">
-        <v>-105.735695748175</v>
+        <v>-106.139349341737</v>
       </c>
       <c r="K60">
-        <v>-231.1982</v>
+        <v>-231.0238</v>
       </c>
       <c r="L60">
-        <v>125.462504251825</v>
+        <v>124.884450658263</v>
       </c>
       <c r="M60">
-        <v>227.15</v>
+        <v>227.25</v>
       </c>
       <c r="N60">
-        <v>-0.000535117056856185</v>
+        <v>-0.000935203740814962</v>
       </c>
       <c r="O60">
-        <v>11.822</v>
+        <v>10.794</v>
       </c>
       <c r="P60">
-        <v>0.32122085991685</v>
+        <v>0.399973419845474</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3427,16 +3427,16 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D61">
-        <v>25954</v>
+        <v>25928</v>
       </c>
       <c r="E61">
-        <v>-45.2</v>
+        <v>-44.5</v>
       </c>
       <c r="F61">
-        <v>-87.5</v>
+        <v>-88.2</v>
       </c>
       <c r="G61">
         <v>76</v>
@@ -3445,28 +3445,28 @@
         <v>37</v>
       </c>
       <c r="I61">
-        <v>42.3</v>
+        <v>43.7</v>
       </c>
       <c r="J61">
-        <v>-115.907695832376</v>
+        <v>-116.263842458093</v>
       </c>
       <c r="K61">
-        <v>-245.8492</v>
+        <v>-245.6944</v>
       </c>
       <c r="L61">
-        <v>129.941504167624</v>
+        <v>129.430557541907</v>
       </c>
       <c r="M61">
-        <v>227.95</v>
+        <v>228.65</v>
       </c>
       <c r="N61">
-        <v>-0.00194444444444444</v>
+        <v>-0.00144524735964425</v>
       </c>
       <c r="O61">
         <v>19.018</v>
       </c>
       <c r="P61">
-        <v>0.140457610980362</v>
+        <v>0.134105992521689</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3480,43 +3480,43 @@
         <v>172</v>
       </c>
       <c r="D62">
-        <v>27754</v>
+        <v>27727</v>
       </c>
       <c r="E62">
-        <v>-41.7</v>
+        <v>-41.9</v>
       </c>
       <c r="F62">
-        <v>-88.5</v>
+        <v>-89.2</v>
       </c>
       <c r="G62">
         <v>81</v>
       </c>
       <c r="H62">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I62">
-        <v>46.8</v>
+        <v>47.3</v>
       </c>
       <c r="J62">
-        <v>-128.398396801316</v>
+        <v>-129.206139306505</v>
       </c>
       <c r="K62">
-        <v>-263.4892</v>
+        <v>-263.3246</v>
       </c>
       <c r="L62">
-        <v>135.090803198684</v>
+        <v>134.118460693495</v>
       </c>
       <c r="M62">
-        <v>231.45</v>
+        <v>231.25</v>
       </c>
       <c r="N62">
-        <v>-0.00187633262260128</v>
+        <v>-0.00183839247541684</v>
       </c>
       <c r="O62">
-        <v>25.7</v>
+        <v>24.158</v>
       </c>
       <c r="P62">
-        <v>0.0753143938392961</v>
+        <v>0.0850337828555627</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3530,37 +3530,37 @@
         <v>124</v>
       </c>
       <c r="D63">
-        <v>30099</v>
+        <v>30066</v>
       </c>
       <c r="E63">
-        <v>-37.3</v>
+        <v>-37.6</v>
       </c>
       <c r="F63">
-        <v>-91.3</v>
+        <v>-90.7</v>
       </c>
       <c r="G63">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H63">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I63">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="J63">
-        <v>-147.260838130226</v>
+        <v>-146.794950123863</v>
       </c>
       <c r="K63">
-        <v>-286.4702</v>
+        <v>-286.2468</v>
       </c>
       <c r="L63">
-        <v>139.209361869774</v>
+        <v>139.451849876137</v>
       </c>
       <c r="M63">
-        <v>235.85</v>
+        <v>235.55</v>
       </c>
       <c r="O63">
-        <v>28.784</v>
+        <v>28.27</v>
       </c>
     </row>
   </sheetData>
